--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="267">
   <si>
     <t>Property</t>
   </si>
@@ -147,10 +147,6 @@
   <si>
     <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.  
 患者の診療に関連する、患者家族の疾患に関する情報。</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}fhs-1:年齢[x]または生まれ[x]を持つことができますが、両方ではありません / Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:年齢[x]が存在する場合にのみ推定される可能性があります / Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1306,16 +1302,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -1323,10 +1319,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1337,28 +1333,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1408,13 +1404,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1437,10 +1433,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1451,25 +1447,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1520,19 +1516,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1549,10 +1545,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1563,28 +1559,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1634,19 +1630,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -1663,10 +1659,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1677,7 +1673,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1689,16 +1685,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1724,43 +1720,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1777,21 +1773,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1803,16 +1799,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1862,28 +1858,28 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>38</v>
@@ -1891,14 +1887,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1917,16 +1913,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1976,7 +1972,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -1997,7 +1993,7 @@
         <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>38</v>
@@ -2005,14 +2001,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2031,16 +2027,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2090,7 +2086,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2102,7 +2098,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2111,7 +2107,7 @@
         <v>38</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>38</v>
@@ -2119,14 +2115,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2139,25 +2135,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2206,7 +2202,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2218,7 +2214,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2227,7 +2223,7 @@
         <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>38</v>
@@ -2235,10 +2231,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2258,22 +2254,22 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2322,7 +2318,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2334,27 +2330,27 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM10" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AL10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM10" t="s" s="2">
+      <c r="AN10" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2374,16 +2370,16 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2434,7 +2430,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2446,16 +2442,16 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>38</v>
@@ -2463,10 +2459,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2486,19 +2482,19 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2548,7 +2544,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -2560,16 +2556,16 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>38</v>
@@ -2577,10 +2573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2588,31 +2584,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="J13" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2638,63 +2634,63 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2705,29 +2701,29 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -2752,52 +2748,52 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>38</v>
@@ -2805,39 +2801,39 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K15" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2888,39 +2884,39 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2931,31 +2927,31 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3004,19 +3000,19 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -3025,18 +3021,18 @@
         <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3047,29 +3043,29 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3118,19 +3114,19 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -3139,7 +3135,7 @@
         <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>38</v>
@@ -3147,10 +3143,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3158,28 +3154,28 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3206,52 +3202,52 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Z18" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Z18" t="s" s="2">
+      <c r="AA18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
@@ -3259,10 +3255,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3273,31 +3269,31 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -3322,14 +3318,14 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="AA19" t="s" s="2">
         <v>38</v>
       </c>
@@ -3346,19 +3342,19 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -3375,10 +3371,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3389,7 +3385,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3401,17 +3397,17 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
@@ -3460,28 +3456,28 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -3489,10 +3485,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3503,31 +3499,31 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -3576,19 +3572,19 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -3597,7 +3593,7 @@
         <v>38</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>38</v>
@@ -3605,10 +3601,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3619,94 +3615,94 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="O22" t="s" s="2">
+      <c r="P22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="P22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q22" t="s" s="2">
+      <c r="R22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3723,10 +3719,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3737,25 +3733,25 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3806,19 +3802,19 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -3827,7 +3823,7 @@
         <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>38</v>
@@ -3835,10 +3831,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3858,19 +3854,19 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3896,14 +3892,14 @@
         <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Z24" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="AA24" t="s" s="2">
         <v>38</v>
       </c>
@@ -3920,7 +3916,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -3932,27 +3928,27 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3972,16 +3968,16 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4032,7 +4028,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4044,27 +4040,27 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AN25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4087,13 +4083,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4144,7 +4140,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4156,16 +4152,16 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>38</v>
@@ -4173,10 +4169,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4199,13 +4195,13 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4256,7 +4252,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4268,7 +4264,7 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
@@ -4277,7 +4273,7 @@
         <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -4285,10 +4281,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4299,7 +4295,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4311,13 +4307,13 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4368,28 +4364,28 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -4397,14 +4393,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4423,16 +4419,16 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4482,7 +4478,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4494,7 +4490,7 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -4503,7 +4499,7 @@
         <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -4511,14 +4507,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4531,25 +4527,25 @@
         <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="N30" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -4598,7 +4594,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4610,7 +4606,7 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -4619,7 +4615,7 @@
         <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -4627,10 +4623,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4638,10 +4634,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -4653,13 +4649,13 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4686,52 +4682,52 @@
         <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>38</v>
@@ -4739,10 +4735,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4753,7 +4749,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -4765,13 +4761,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4798,52 +4794,52 @@
         <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Z32" t="s" s="2">
+      <c r="AA32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -4851,10 +4847,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4865,7 +4861,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -4877,13 +4873,13 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4934,19 +4930,19 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -4963,10 +4959,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4977,7 +4973,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -4989,17 +4985,17 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5048,19 +5044,19 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -5069,7 +5065,7 @@
         <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5077,10 +5073,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5103,13 +5099,13 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5160,7 +5156,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5172,7 +5168,7 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
@@ -5181,7 +5177,7 @@
         <v>38</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>38</v>
